--- a/ManualTestingTaskArminNukic.xlsx
+++ b/ManualTestingTaskArminNukic.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="162">
   <si>
     <t>Test Case Description</t>
   </si>
@@ -54,12 +54,6 @@
   </si>
   <si>
     <t>Date Tested</t>
-  </si>
-  <si>
-    <t>Test Case (Pass/Fail/Not Executed)</t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
   <si>
     <t>S #</t>
@@ -734,6 +728,9 @@
       </rPr>
       <t xml:space="preserve"> that street address is displayed with markers in this cities "Čelić", "Tešanj", "Zenica" and "Kakanj". This street address should be displayed only in Sarajevo region not in other cities, because it is designed only for Sarajevo and in search bar is written "Sarajevo".                                                    </t>
     </r>
+  </si>
+  <si>
+    <t>Test Cases (Pass/Fail/Not Executed)</t>
   </si>
 </sst>
 </file>
@@ -1142,148 +1139,58 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1309,16 +1216,106 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1605,8 +1602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28:G28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1617,48 +1614,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="B1" s="50"/>
+      <c r="A1" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="58"/>
       <c r="C1" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="51" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="52"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="32"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="50"/>
+      <c r="B2" s="58"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53" t="s">
+      <c r="E2" s="58"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="50"/>
-      <c r="J2" s="54" t="s">
+      <c r="I2" s="58"/>
+      <c r="J2" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="55"/>
+      <c r="K2" s="61"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
@@ -1674,10 +1671,10 @@
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="57"/>
+      <c r="B4" s="63"/>
       <c r="C4" s="5"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -1702,29 +1699,27 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="57"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="57"/>
-      <c r="F6" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="G6" s="59"/>
-      <c r="H6" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="57"/>
-      <c r="J6" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="48"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="64" t="s">
+        <v>136</v>
+      </c>
+      <c r="G6" s="65"/>
+      <c r="H6" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="I6" s="63"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
@@ -1741,108 +1736,108 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
+        <v>10</v>
+      </c>
+      <c r="B8" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
       <c r="E8" s="10"/>
       <c r="F8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <v>1</v>
       </c>
-      <c r="B9" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="52"/>
+      <c r="B9" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="31"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="3"/>
       <c r="F9" s="12">
         <v>1</v>
       </c>
-      <c r="G9" s="63" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="52"/>
+      <c r="G9" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="32"/>
     </row>
     <row r="10" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>2</v>
       </c>
-      <c r="B10" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="52"/>
+      <c r="B10" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="31"/>
+      <c r="D10" s="32"/>
       <c r="E10" s="3"/>
       <c r="F10" s="12">
         <v>2</v>
       </c>
-      <c r="G10" s="63" t="s">
-        <v>136</v>
-      </c>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="52"/>
+      <c r="G10" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="32"/>
     </row>
     <row r="11" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <v>3</v>
       </c>
-      <c r="B11" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="52"/>
+      <c r="B11" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="32"/>
       <c r="E11" s="3"/>
       <c r="F11" s="12">
         <v>3</v>
       </c>
-      <c r="G11" s="63" t="s">
-        <v>135</v>
-      </c>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="52"/>
+      <c r="G11" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="32"/>
     </row>
     <row r="12" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <v>4</v>
       </c>
-      <c r="B12" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="52"/>
+      <c r="B12" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
       <c r="E12" s="3"/>
       <c r="F12" s="12">
         <v>4</v>
       </c>
-      <c r="G12" s="63" t="s">
-        <v>137</v>
-      </c>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="52"/>
+      <c r="G12" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="32"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
@@ -1858,23 +1853,23 @@
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="69" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="69"/>
+      <c r="A14" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
       <c r="P14"/>
       <c r="Q14"/>
       <c r="R14"/>
@@ -1882,23 +1877,23 @@
       <c r="T14"/>
     </row>
     <row r="15" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="70" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="70"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="70"/>
+      <c r="A15" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
       <c r="P15"/>
       <c r="Q15"/>
       <c r="R15"/>
@@ -1906,1256 +1901,1449 @@
       <c r="T15"/>
     </row>
     <row r="16" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="36"/>
+      <c r="D16" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="E16" s="36"/>
+      <c r="F16" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="66"/>
-      <c r="D16" s="36" t="s">
+      <c r="G16" s="36"/>
+      <c r="H16" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="66"/>
-      <c r="F16" s="36" t="s">
+      <c r="I16" s="42"/>
+      <c r="J16" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" s="45"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="66"/>
-      <c r="H16" s="71" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" s="72"/>
-      <c r="J16" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" s="37"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="N16" s="37"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="38"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="46"/>
     </row>
     <row r="17" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="65"/>
-      <c r="B17" s="67"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="41"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="49"/>
     </row>
     <row r="18" spans="1:18" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15">
         <v>1</v>
       </c>
-      <c r="B18" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="76"/>
-      <c r="D18" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="43"/>
-      <c r="F18" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" s="45"/>
-      <c r="H18" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="I18" s="45"/>
-      <c r="J18" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="K18" s="46"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="N18" s="46"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="45"/>
+      <c r="B18" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="23"/>
+      <c r="D18" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="51"/>
+      <c r="F18" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="53"/>
+      <c r="H18" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="53"/>
+      <c r="J18" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="K18" s="54"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="N18" s="54"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="53"/>
     </row>
     <row r="19" spans="1:18" ht="159.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="17">
         <v>2</v>
       </c>
-      <c r="B19" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="77" t="s">
-        <v>28</v>
-      </c>
-      <c r="E19" s="78"/>
-      <c r="F19" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="G19" s="34"/>
-      <c r="H19" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="I19" s="34"/>
-      <c r="J19" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="K19" s="33"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="35" t="s">
+      <c r="B19" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="27"/>
+      <c r="F19" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="G19" s="25"/>
+      <c r="H19" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="N19" s="33"/>
-      <c r="O19" s="34"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="34"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="K19" s="69"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="N19" s="69"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="69"/>
+      <c r="R19" s="25"/>
     </row>
     <row r="20" spans="1:18" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
         <v>3</v>
       </c>
-      <c r="B20" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" s="20"/>
-      <c r="H20" s="21" t="s">
+      <c r="B20" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="29"/>
+      <c r="F20" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="29"/>
+      <c r="H20" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" s="29"/>
+      <c r="J20" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="I20" s="20"/>
-      <c r="J20" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="K20" s="19"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="N20" s="19"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="19"/>
-      <c r="R20" s="20"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="N20" s="71"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="29"/>
     </row>
     <row r="21" spans="1:18" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
         <v>4</v>
       </c>
-      <c r="B21" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="I21" s="20"/>
-      <c r="J21" s="21" t="s">
+      <c r="B21" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="29"/>
+      <c r="F21" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="K21" s="19"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="18" t="s">
+      <c r="G21" s="29"/>
+      <c r="H21" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="29"/>
+      <c r="J21" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="N21" s="19"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="20"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="72" t="s">
+        <v>36</v>
+      </c>
+      <c r="N21" s="71"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="71"/>
+      <c r="R21" s="29"/>
     </row>
     <row r="22" spans="1:18" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16">
         <v>5</v>
       </c>
-      <c r="B22" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="G22" s="29"/>
-      <c r="H22" s="28" t="s">
+      <c r="B22" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="73" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="74"/>
+      <c r="F22" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="19"/>
+      <c r="H22" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="I22" s="19"/>
+      <c r="J22" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" s="75"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="I22" s="29"/>
-      <c r="J22" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="K22" s="30"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="N22" s="30"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="29"/>
+      <c r="N22" s="75"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="75"/>
+      <c r="R22" s="19"/>
     </row>
     <row r="23" spans="1:18" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14">
         <v>6</v>
       </c>
-      <c r="B23" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="24"/>
-      <c r="F23" s="22" t="s">
+      <c r="B23" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="21"/>
+      <c r="F23" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="21"/>
+      <c r="H23" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23" s="21"/>
+      <c r="J23" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="G23" s="24"/>
-      <c r="H23" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="I23" s="24"/>
-      <c r="J23" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="K23" s="23"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="N23" s="23"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="24"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="N23" s="77"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="77"/>
+      <c r="R23" s="21"/>
     </row>
     <row r="24" spans="1:18" ht="147" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13">
         <v>7</v>
       </c>
-      <c r="B24" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="G24" s="20"/>
-      <c r="H24" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="I24" s="20"/>
-      <c r="J24" s="21" t="s">
+      <c r="B24" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="29"/>
+      <c r="D24" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="29"/>
+      <c r="F24" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="K24" s="19"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="N24" s="19"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="19"/>
-      <c r="R24" s="20"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="I24" s="29"/>
+      <c r="J24" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="K24" s="71"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="72" t="s">
+        <v>54</v>
+      </c>
+      <c r="N24" s="71"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="28"/>
+      <c r="Q24" s="71"/>
+      <c r="R24" s="29"/>
     </row>
     <row r="25" spans="1:18" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14">
         <v>8</v>
       </c>
-      <c r="B25" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="G25" s="20"/>
-      <c r="H25" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="I25" s="20"/>
-      <c r="J25" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="K25" s="19"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="N25" s="19"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="19"/>
-      <c r="R25" s="20"/>
+      <c r="B25" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="29"/>
+      <c r="F25" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="29"/>
+      <c r="H25" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="I25" s="29"/>
+      <c r="J25" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="K25" s="71"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="N25" s="71"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="71"/>
+      <c r="R25" s="29"/>
     </row>
     <row r="26" spans="1:18" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
         <v>9</v>
       </c>
-      <c r="B26" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="21" t="s">
+      <c r="B26" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="29"/>
+      <c r="D26" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="29"/>
+      <c r="F26" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="29"/>
+      <c r="H26" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="I26" s="29"/>
+      <c r="J26" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="K26" s="71"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="G26" s="20"/>
-      <c r="H26" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="I26" s="20"/>
-      <c r="J26" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="K26" s="19"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="N26" s="19"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="19"/>
-      <c r="R26" s="20"/>
+      <c r="N26" s="71"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="71"/>
+      <c r="R26" s="29"/>
     </row>
     <row r="27" spans="1:18" ht="145.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14">
         <v>10</v>
       </c>
-      <c r="B27" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="20"/>
-      <c r="H27" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="I27" s="20"/>
-      <c r="J27" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="K27" s="19"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="N27" s="19"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="20"/>
+      <c r="B27" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="29"/>
+      <c r="F27" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="29"/>
+      <c r="H27" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="I27" s="29"/>
+      <c r="J27" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="K27" s="71"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="N27" s="71"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="71"/>
+      <c r="R27" s="29"/>
     </row>
     <row r="28" spans="1:18" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
         <v>11</v>
       </c>
-      <c r="B28" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="G28" s="20"/>
-      <c r="H28" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="I28" s="20"/>
-      <c r="J28" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="K28" s="19"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="N28" s="19"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="20"/>
+      <c r="B28" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="29"/>
+      <c r="D28" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="29"/>
+      <c r="F28" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="29"/>
+      <c r="H28" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="I28" s="29"/>
+      <c r="J28" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="K28" s="71"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="72" t="s">
+        <v>63</v>
+      </c>
+      <c r="N28" s="71"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="71"/>
+      <c r="R28" s="29"/>
     </row>
     <row r="29" spans="1:18" ht="149.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14">
         <v>12</v>
       </c>
-      <c r="B29" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="G29" s="20"/>
-      <c r="H29" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="I29" s="20"/>
-      <c r="J29" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="K29" s="19"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="N29" s="19"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="20"/>
+      <c r="B29" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="29"/>
+      <c r="D29" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="29"/>
+      <c r="F29" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" s="29"/>
+      <c r="H29" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="I29" s="29"/>
+      <c r="J29" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="K29" s="71"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="N29" s="71"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="71"/>
+      <c r="R29" s="29"/>
     </row>
     <row r="30" spans="1:18" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="13">
         <v>13</v>
       </c>
-      <c r="B30" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="G30" s="20"/>
-      <c r="H30" s="21" t="s">
+      <c r="B30" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="29"/>
+      <c r="D30" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="29"/>
+      <c r="F30" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="I30" s="20"/>
-      <c r="J30" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="K30" s="19"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="N30" s="19"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="20"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="I30" s="29"/>
+      <c r="J30" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="K30" s="71"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="N30" s="71"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="28"/>
+      <c r="Q30" s="71"/>
+      <c r="R30" s="29"/>
     </row>
     <row r="31" spans="1:18" ht="138" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14">
         <v>14</v>
       </c>
-      <c r="B31" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="G31" s="20"/>
-      <c r="H31" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="I31" s="20"/>
-      <c r="J31" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="K31" s="19"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="18" t="s">
+      <c r="B31" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="29"/>
+      <c r="D31" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="29"/>
+      <c r="F31" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" s="29"/>
+      <c r="H31" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="I31" s="29"/>
+      <c r="J31" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="N31" s="19"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="19"/>
-      <c r="R31" s="20"/>
+      <c r="K31" s="71"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="N31" s="71"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="28"/>
+      <c r="Q31" s="71"/>
+      <c r="R31" s="29"/>
     </row>
     <row r="32" spans="1:18" ht="151.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="13">
         <v>15</v>
       </c>
-      <c r="B32" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="20"/>
-      <c r="D32" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="20"/>
-      <c r="F32" s="21" t="s">
+      <c r="B32" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="29"/>
+      <c r="D32" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="29"/>
+      <c r="F32" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32" s="29"/>
+      <c r="H32" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="I32" s="29"/>
+      <c r="J32" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="K32" s="71"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="G32" s="20"/>
-      <c r="H32" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="I32" s="20"/>
-      <c r="J32" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="K32" s="19"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="N32" s="19"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="20"/>
+      <c r="N32" s="71"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="71"/>
+      <c r="R32" s="29"/>
     </row>
     <row r="33" spans="1:18" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14">
         <v>16</v>
       </c>
-      <c r="B33" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="20"/>
-      <c r="D33" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E33" s="20"/>
-      <c r="F33" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="G33" s="20"/>
-      <c r="H33" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="I33" s="20"/>
-      <c r="J33" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="K33" s="19"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="18" t="s">
+      <c r="B33" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="29"/>
+      <c r="D33" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="29"/>
+      <c r="F33" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="G33" s="29"/>
+      <c r="H33" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="N33" s="19"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="20"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="K33" s="71"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="72" t="s">
+        <v>77</v>
+      </c>
+      <c r="N33" s="71"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="28"/>
+      <c r="Q33" s="71"/>
+      <c r="R33" s="29"/>
     </row>
     <row r="34" spans="1:18" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="13">
         <v>17</v>
       </c>
-      <c r="B34" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="20"/>
-      <c r="D34" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E34" s="20"/>
-      <c r="F34" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="G34" s="20"/>
-      <c r="H34" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="I34" s="20"/>
-      <c r="J34" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="K34" s="19"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="18" t="s">
+      <c r="B34" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="29"/>
+      <c r="D34" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="29"/>
+      <c r="F34" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="G34" s="29"/>
+      <c r="H34" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="I34" s="29"/>
+      <c r="J34" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="N34" s="19"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="20"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="N34" s="71"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="28"/>
+      <c r="Q34" s="71"/>
+      <c r="R34" s="29"/>
     </row>
     <row r="35" spans="1:18" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14">
         <v>18</v>
       </c>
-      <c r="B35" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E35" s="20"/>
-      <c r="F35" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="G35" s="20"/>
-      <c r="H35" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="I35" s="20"/>
-      <c r="J35" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="K35" s="19"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="N35" s="19"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="20"/>
+      <c r="B35" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="29"/>
+      <c r="D35" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="29"/>
+      <c r="F35" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="G35" s="29"/>
+      <c r="H35" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="I35" s="29"/>
+      <c r="J35" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="K35" s="71"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="72" t="s">
+        <v>84</v>
+      </c>
+      <c r="N35" s="71"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="28"/>
+      <c r="Q35" s="71"/>
+      <c r="R35" s="29"/>
     </row>
     <row r="36" spans="1:18" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="13">
         <v>19</v>
       </c>
-      <c r="B36" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="20"/>
-      <c r="D36" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E36" s="20"/>
-      <c r="F36" s="21" t="s">
+      <c r="B36" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="29"/>
+      <c r="D36" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="29"/>
+      <c r="F36" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="G36" s="29"/>
+      <c r="H36" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="G36" s="20"/>
-      <c r="H36" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="I36" s="20"/>
-      <c r="J36" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="K36" s="19"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="N36" s="19"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="21"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="20"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="K36" s="71"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="72" t="s">
+        <v>87</v>
+      </c>
+      <c r="N36" s="71"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="71"/>
+      <c r="R36" s="29"/>
     </row>
     <row r="37" spans="1:18" ht="241.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14">
         <v>20</v>
       </c>
-      <c r="B37" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E37" s="20"/>
-      <c r="F37" s="21" t="s">
+      <c r="B37" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="29"/>
+      <c r="D37" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="29"/>
+      <c r="F37" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="G37" s="29"/>
+      <c r="H37" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="I37" s="29"/>
+      <c r="J37" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="G37" s="20"/>
-      <c r="H37" s="21" t="s">
+      <c r="K37" s="71"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="I37" s="20"/>
-      <c r="J37" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="K37" s="19"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="N37" s="19"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="19"/>
-      <c r="R37" s="20"/>
+      <c r="N37" s="71"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="28"/>
+      <c r="Q37" s="71"/>
+      <c r="R37" s="29"/>
     </row>
     <row r="38" spans="1:18" ht="236.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="13">
         <v>21</v>
       </c>
-      <c r="B38" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E38" s="20"/>
-      <c r="F38" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="G38" s="20"/>
-      <c r="H38" s="21" t="s">
+      <c r="B38" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="29"/>
+      <c r="D38" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="29"/>
+      <c r="F38" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="I38" s="20"/>
-      <c r="J38" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="K38" s="19"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="N38" s="19"/>
-      <c r="O38" s="20"/>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="20"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="I38" s="29"/>
+      <c r="J38" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="K38" s="71"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="72" t="s">
+        <v>94</v>
+      </c>
+      <c r="N38" s="71"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="71"/>
+      <c r="R38" s="29"/>
     </row>
     <row r="39" spans="1:18" ht="290.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14">
         <v>22</v>
       </c>
-      <c r="B39" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E39" s="20"/>
-      <c r="F39" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="G39" s="20"/>
-      <c r="H39" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="I39" s="20"/>
-      <c r="J39" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="K39" s="19"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="18" t="s">
+      <c r="B39" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="29"/>
+      <c r="D39" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="29"/>
+      <c r="F39" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="N39" s="19"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="19"/>
-      <c r="R39" s="20"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="I39" s="29"/>
+      <c r="J39" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="K39" s="71"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="72" t="s">
+        <v>96</v>
+      </c>
+      <c r="N39" s="71"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="28"/>
+      <c r="Q39" s="71"/>
+      <c r="R39" s="29"/>
     </row>
     <row r="40" spans="1:18" ht="152.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="13">
         <v>23</v>
       </c>
-      <c r="B40" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E40" s="20"/>
-      <c r="F40" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="G40" s="20"/>
-      <c r="H40" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="I40" s="20"/>
-      <c r="J40" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="K40" s="19"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="18" t="s">
+      <c r="B40" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="29"/>
+      <c r="D40" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="29"/>
+      <c r="F40" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="G40" s="29"/>
+      <c r="H40" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="N40" s="19"/>
-      <c r="O40" s="20"/>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="19"/>
-      <c r="R40" s="20"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="K40" s="71"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="72" t="s">
+        <v>101</v>
+      </c>
+      <c r="N40" s="71"/>
+      <c r="O40" s="29"/>
+      <c r="P40" s="28"/>
+      <c r="Q40" s="71"/>
+      <c r="R40" s="29"/>
     </row>
     <row r="41" spans="1:18" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="14">
         <v>24</v>
       </c>
-      <c r="B41" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" s="20"/>
-      <c r="D41" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E41" s="20"/>
-      <c r="F41" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="G41" s="20"/>
-      <c r="H41" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="I41" s="20"/>
-      <c r="J41" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="K41" s="19"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="N41" s="19"/>
-      <c r="O41" s="20"/>
-      <c r="P41" s="21"/>
-      <c r="Q41" s="19"/>
-      <c r="R41" s="20"/>
+      <c r="B41" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="29"/>
+      <c r="D41" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="29"/>
+      <c r="F41" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="G41" s="29"/>
+      <c r="H41" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="I41" s="29"/>
+      <c r="J41" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="K41" s="71"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="72" t="s">
+        <v>104</v>
+      </c>
+      <c r="N41" s="71"/>
+      <c r="O41" s="29"/>
+      <c r="P41" s="28"/>
+      <c r="Q41" s="71"/>
+      <c r="R41" s="29"/>
     </row>
     <row r="42" spans="1:18" ht="204.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="13">
         <v>25</v>
       </c>
-      <c r="B42" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E42" s="20"/>
-      <c r="F42" s="21" t="s">
+      <c r="B42" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="29"/>
+      <c r="D42" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" s="29"/>
+      <c r="F42" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="G42" s="29"/>
+      <c r="H42" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="I42" s="29"/>
+      <c r="J42" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="G42" s="20"/>
-      <c r="H42" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="I42" s="20"/>
-      <c r="J42" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="K42" s="19"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="N42" s="19"/>
-      <c r="O42" s="20"/>
-      <c r="P42" s="21"/>
-      <c r="Q42" s="19"/>
-      <c r="R42" s="20"/>
+      <c r="K42" s="71"/>
+      <c r="L42" s="29"/>
+      <c r="M42" s="72" t="s">
+        <v>106</v>
+      </c>
+      <c r="N42" s="71"/>
+      <c r="O42" s="29"/>
+      <c r="P42" s="28"/>
+      <c r="Q42" s="71"/>
+      <c r="R42" s="29"/>
     </row>
     <row r="43" spans="1:18" ht="145.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14">
         <v>26</v>
       </c>
-      <c r="B43" s="21"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="21" t="s">
+      <c r="B43" s="28"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="G43" s="29"/>
+      <c r="H43" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="G43" s="20"/>
-      <c r="H43" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="I43" s="20"/>
-      <c r="J43" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="K43" s="19"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="18" t="s">
+      <c r="I43" s="29"/>
+      <c r="J43" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="N43" s="19"/>
-      <c r="O43" s="20"/>
-      <c r="P43" s="21"/>
-      <c r="Q43" s="19"/>
-      <c r="R43" s="20"/>
+      <c r="K43" s="71"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="72" t="s">
+        <v>111</v>
+      </c>
+      <c r="N43" s="71"/>
+      <c r="O43" s="29"/>
+      <c r="P43" s="28"/>
+      <c r="Q43" s="71"/>
+      <c r="R43" s="29"/>
     </row>
     <row r="44" spans="1:18" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="13">
         <v>27</v>
       </c>
-      <c r="B44" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44" s="20"/>
-      <c r="D44" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E44" s="20"/>
-      <c r="F44" s="21" t="s">
+      <c r="B44" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="29"/>
+      <c r="D44" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" s="29"/>
+      <c r="F44" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="G44" s="29"/>
+      <c r="H44" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="G44" s="20"/>
-      <c r="H44" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="I44" s="20"/>
-      <c r="J44" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="K44" s="19"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="N44" s="19"/>
-      <c r="O44" s="20"/>
-      <c r="P44" s="21"/>
-      <c r="Q44" s="19"/>
-      <c r="R44" s="20"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="K44" s="71"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="72" t="s">
+        <v>115</v>
+      </c>
+      <c r="N44" s="71"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="28"/>
+      <c r="Q44" s="71"/>
+      <c r="R44" s="29"/>
     </row>
     <row r="45" spans="1:18" ht="141.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14">
         <v>28</v>
       </c>
-      <c r="B45" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E45" s="20"/>
-      <c r="F45" s="21" t="s">
+      <c r="B45" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" s="29"/>
+      <c r="D45" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" s="29"/>
+      <c r="F45" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="G45" s="29"/>
+      <c r="H45" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="I45" s="29"/>
+      <c r="J45" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="K45" s="71"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="G45" s="20"/>
-      <c r="H45" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="I45" s="20"/>
-      <c r="J45" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="K45" s="19"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="N45" s="19"/>
-      <c r="O45" s="20"/>
-      <c r="P45" s="21"/>
-      <c r="Q45" s="19"/>
-      <c r="R45" s="20"/>
+      <c r="N45" s="71"/>
+      <c r="O45" s="29"/>
+      <c r="P45" s="28"/>
+      <c r="Q45" s="71"/>
+      <c r="R45" s="29"/>
     </row>
     <row r="46" spans="1:18" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="13">
         <v>29</v>
       </c>
-      <c r="B46" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46" s="20"/>
-      <c r="D46" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E46" s="20"/>
-      <c r="F46" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="G46" s="20"/>
-      <c r="H46" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="I46" s="20"/>
-      <c r="J46" s="21" t="s">
+      <c r="B46" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="29"/>
+      <c r="D46" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="29"/>
+      <c r="F46" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="K46" s="19"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="18" t="s">
+      <c r="G46" s="29"/>
+      <c r="H46" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="I46" s="29"/>
+      <c r="J46" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="N46" s="19"/>
-      <c r="O46" s="20"/>
-      <c r="P46" s="21"/>
-      <c r="Q46" s="19"/>
-      <c r="R46" s="20"/>
+      <c r="K46" s="71"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="N46" s="71"/>
+      <c r="O46" s="29"/>
+      <c r="P46" s="28"/>
+      <c r="Q46" s="71"/>
+      <c r="R46" s="29"/>
     </row>
     <row r="47" spans="1:18" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="14">
         <v>30</v>
       </c>
-      <c r="B47" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" s="20"/>
-      <c r="D47" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E47" s="20"/>
-      <c r="F47" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="G47" s="20"/>
-      <c r="H47" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="I47" s="20"/>
-      <c r="J47" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="K47" s="19"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="N47" s="19"/>
-      <c r="O47" s="20"/>
-      <c r="P47" s="21"/>
-      <c r="Q47" s="19"/>
-      <c r="R47" s="20"/>
+      <c r="B47" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" s="29"/>
+      <c r="D47" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="29"/>
+      <c r="F47" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="G47" s="29"/>
+      <c r="H47" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="I47" s="29"/>
+      <c r="J47" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="K47" s="71"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="72" t="s">
+        <v>87</v>
+      </c>
+      <c r="N47" s="71"/>
+      <c r="O47" s="29"/>
+      <c r="P47" s="28"/>
+      <c r="Q47" s="71"/>
+      <c r="R47" s="29"/>
     </row>
     <row r="48" spans="1:18" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="13">
         <v>31</v>
       </c>
-      <c r="B48" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C48" s="20"/>
-      <c r="D48" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E48" s="20"/>
-      <c r="F48" s="21" t="s">
+      <c r="B48" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="29"/>
+      <c r="D48" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="29"/>
+      <c r="F48" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="G48" s="29"/>
+      <c r="H48" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="G48" s="20"/>
-      <c r="H48" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="I48" s="20"/>
-      <c r="J48" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="K48" s="19"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="N48" s="19"/>
-      <c r="O48" s="20"/>
-      <c r="P48" s="21"/>
-      <c r="Q48" s="19"/>
-      <c r="R48" s="20"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="K48" s="71"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="72" t="s">
+        <v>87</v>
+      </c>
+      <c r="N48" s="71"/>
+      <c r="O48" s="29"/>
+      <c r="P48" s="28"/>
+      <c r="Q48" s="71"/>
+      <c r="R48" s="29"/>
     </row>
     <row r="49" spans="1:18" ht="207" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="14">
         <v>32</v>
       </c>
-      <c r="B49" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E49" s="20"/>
-      <c r="F49" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="G49" s="20"/>
-      <c r="H49" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="I49" s="20"/>
-      <c r="J49" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="K49" s="19"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="N49" s="19"/>
-      <c r="O49" s="20"/>
-      <c r="P49" s="21"/>
-      <c r="Q49" s="19"/>
-      <c r="R49" s="20"/>
+      <c r="B49" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" s="29"/>
+      <c r="D49" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" s="29"/>
+      <c r="F49" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="G49" s="29"/>
+      <c r="H49" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="I49" s="29"/>
+      <c r="J49" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="K49" s="71"/>
+      <c r="L49" s="29"/>
+      <c r="M49" s="72" t="s">
+        <v>84</v>
+      </c>
+      <c r="N49" s="71"/>
+      <c r="O49" s="29"/>
+      <c r="P49" s="28"/>
+      <c r="Q49" s="71"/>
+      <c r="R49" s="29"/>
     </row>
     <row r="50" spans="1:18" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="13">
         <v>33</v>
       </c>
-      <c r="B50" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C50" s="20"/>
-      <c r="D50" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E50" s="20"/>
-      <c r="F50" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="G50" s="20"/>
-      <c r="H50" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="I50" s="20"/>
-      <c r="J50" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="K50" s="19"/>
-      <c r="L50" s="20"/>
-      <c r="M50" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="N50" s="19"/>
-      <c r="O50" s="20"/>
-      <c r="P50" s="21"/>
-      <c r="Q50" s="19"/>
-      <c r="R50" s="20"/>
+      <c r="B50" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="29"/>
+      <c r="D50" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E50" s="29"/>
+      <c r="F50" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="G50" s="29"/>
+      <c r="H50" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="I50" s="29"/>
+      <c r="J50" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="K50" s="71"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="72" t="s">
+        <v>84</v>
+      </c>
+      <c r="N50" s="71"/>
+      <c r="O50" s="29"/>
+      <c r="P50" s="28"/>
+      <c r="Q50" s="71"/>
+      <c r="R50" s="29"/>
     </row>
     <row r="51" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="14">
         <v>34</v>
       </c>
-      <c r="B51" s="21"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="19"/>
-      <c r="O51" s="20"/>
-      <c r="P51" s="21"/>
-      <c r="Q51" s="19"/>
-      <c r="R51" s="20"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="71"/>
+      <c r="L51" s="29"/>
+      <c r="M51" s="72"/>
+      <c r="N51" s="71"/>
+      <c r="O51" s="29"/>
+      <c r="P51" s="28"/>
+      <c r="Q51" s="71"/>
+      <c r="R51" s="29"/>
     </row>
     <row r="52" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="13">
         <v>35</v>
       </c>
-      <c r="B52" s="21"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="20"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="19"/>
-      <c r="O52" s="20"/>
-      <c r="P52" s="21"/>
-      <c r="Q52" s="19"/>
-      <c r="R52" s="20"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="71"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="72"/>
+      <c r="N52" s="71"/>
+      <c r="O52" s="29"/>
+      <c r="P52" s="28"/>
+      <c r="Q52" s="71"/>
+      <c r="R52" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="279">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="A14:O14"/>
-    <mergeCell ref="A15:O15"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:G17"/>
-    <mergeCell ref="H16:I17"/>
-    <mergeCell ref="J16:L17"/>
-    <mergeCell ref="M16:O17"/>
+    <mergeCell ref="M51:O51"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="P52:R52"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="M50:O50"/>
+    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="M48:O48"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="P45:R45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="P43:R43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="P44:R44"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="M42:O42"/>
+    <mergeCell ref="P42:R42"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="P40:R40"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="P20:R20"/>
     <mergeCell ref="P16:R17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="F18:G18"/>
@@ -3180,230 +3368,37 @@
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="G8:K8"/>
     <mergeCell ref="B9:D9"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="P20:R20"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="P40:R40"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="M42:O42"/>
-    <mergeCell ref="P42:R42"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="M43:O43"/>
-    <mergeCell ref="P43:R43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="M44:O44"/>
-    <mergeCell ref="P44:R44"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="M45:O45"/>
-    <mergeCell ref="P45:R45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="P46:R46"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="M47:O47"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:L48"/>
-    <mergeCell ref="M48:O48"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="M49:O49"/>
-    <mergeCell ref="P49:R49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="M50:O50"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="M51:O51"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="M52:O52"/>
-    <mergeCell ref="P52:R52"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:L51"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="A14:O14"/>
+    <mergeCell ref="A15:O15"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:G17"/>
+    <mergeCell ref="H16:I17"/>
+    <mergeCell ref="J16:L17"/>
+    <mergeCell ref="M16:O17"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M18" r:id="rId1" location="/p/sarajevo-city-center"/>

--- a/ManualTestingTaskArminNukic.xlsx
+++ b/ManualTestingTaskArminNukic.xlsx
@@ -1139,58 +1139,148 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1216,106 +1306,16 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1603,7 +1603,7 @@
   <dimension ref="A1:T52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1614,48 +1614,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="58"/>
+      <c r="B1" s="50"/>
       <c r="C1" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="31" t="s">
+      <c r="E1" s="50"/>
+      <c r="F1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="32"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="52"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="50"/>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="58"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="59" t="s">
+      <c r="E2" s="50"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="58"/>
-      <c r="J2" s="60" t="s">
+      <c r="I2" s="50"/>
+      <c r="J2" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="61"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
@@ -1671,10 +1671,10 @@
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="63"/>
+      <c r="B4" s="57"/>
       <c r="C4" s="5"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -1699,27 +1699,27 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="63"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="63"/>
-      <c r="F6" s="64" t="s">
+      <c r="E6" s="57"/>
+      <c r="F6" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="G6" s="65"/>
-      <c r="H6" s="59" t="s">
+      <c r="G6" s="59"/>
+      <c r="H6" s="53" t="s">
         <v>161</v>
       </c>
-      <c r="I6" s="63"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
@@ -1738,106 +1738,106 @@
       <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
       <c r="E8" s="10"/>
       <c r="F8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="57" t="s">
+      <c r="G8" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <v>1</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="52"/>
       <c r="E9" s="3"/>
       <c r="F9" s="12">
         <v>1</v>
       </c>
-      <c r="G9" s="30" t="s">
+      <c r="G9" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="52"/>
     </row>
     <row r="10" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12">
         <v>2</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="32"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="52"/>
       <c r="E10" s="3"/>
       <c r="F10" s="12">
         <v>2</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="32"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="52"/>
     </row>
     <row r="11" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <v>3</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="32"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="52"/>
       <c r="E11" s="3"/>
       <c r="F11" s="12">
         <v>3</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="32"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="52"/>
     </row>
     <row r="12" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <v>4</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="52"/>
       <c r="E12" s="3"/>
       <c r="F12" s="12">
         <v>4</v>
       </c>
-      <c r="G12" s="30" t="s">
+      <c r="G12" s="63" t="s">
         <v>135</v>
       </c>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="32"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="52"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
@@ -1853,23 +1853,23 @@
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="69"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="69"/>
       <c r="P14"/>
       <c r="Q14"/>
       <c r="R14"/>
@@ -1877,23 +1877,23 @@
       <c r="T14"/>
     </row>
     <row r="15" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="70"/>
       <c r="P15"/>
       <c r="Q15"/>
       <c r="R15"/>
@@ -1901,1449 +1901,1256 @@
       <c r="T15"/>
     </row>
     <row r="16" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="36"/>
-      <c r="D16" s="35" t="s">
+      <c r="C16" s="66"/>
+      <c r="D16" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="35" t="s">
+      <c r="E16" s="66"/>
+      <c r="F16" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="36"/>
-      <c r="H16" s="41" t="s">
+      <c r="G16" s="66"/>
+      <c r="H16" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="I16" s="42"/>
-      <c r="J16" s="35" t="s">
+      <c r="I16" s="72"/>
+      <c r="J16" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="45"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="35" t="s">
+      <c r="K16" s="37"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="N16" s="45"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="35" t="s">
+      <c r="N16" s="37"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="46"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="38"/>
     </row>
     <row r="17" spans="1:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="34"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="49"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="41"/>
     </row>
     <row r="18" spans="1:18" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15">
         <v>1</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="50" t="s">
+      <c r="C18" s="76"/>
+      <c r="D18" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="51"/>
-      <c r="F18" s="52" t="s">
+      <c r="E18" s="43"/>
+      <c r="F18" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="53"/>
-      <c r="H18" s="52" t="s">
+      <c r="G18" s="45"/>
+      <c r="H18" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="I18" s="53"/>
-      <c r="J18" s="52" t="s">
+      <c r="I18" s="45"/>
+      <c r="J18" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="K18" s="54"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="55" t="s">
+      <c r="K18" s="46"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="N18" s="54"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="53"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="45"/>
     </row>
     <row r="19" spans="1:18" ht="159.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="17">
         <v>2</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26" t="s">
+      <c r="C19" s="34"/>
+      <c r="D19" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="24" t="s">
+      <c r="E19" s="78"/>
+      <c r="F19" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="G19" s="25"/>
-      <c r="H19" s="24" t="s">
+      <c r="G19" s="34"/>
+      <c r="H19" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="I19" s="25"/>
-      <c r="J19" s="24" t="s">
+      <c r="I19" s="34"/>
+      <c r="J19" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="K19" s="69"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="70" t="s">
+      <c r="K19" s="33"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="N19" s="69"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="69"/>
-      <c r="R19" s="25"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="34"/>
     </row>
     <row r="20" spans="1:18" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
         <v>3</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="28" t="s">
+      <c r="C20" s="20"/>
+      <c r="D20" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="29"/>
-      <c r="F20" s="28" t="s">
+      <c r="E20" s="20"/>
+      <c r="F20" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="29"/>
-      <c r="H20" s="28" t="s">
+      <c r="G20" s="20"/>
+      <c r="H20" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="I20" s="29"/>
-      <c r="J20" s="28" t="s">
+      <c r="I20" s="20"/>
+      <c r="J20" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="K20" s="71"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="72" t="s">
+      <c r="K20" s="19"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="N20" s="71"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="71"/>
-      <c r="R20" s="29"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="20"/>
     </row>
     <row r="21" spans="1:18" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
         <v>4</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="28" t="s">
+      <c r="C21" s="20"/>
+      <c r="D21" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="29"/>
-      <c r="F21" s="28" t="s">
+      <c r="E21" s="20"/>
+      <c r="F21" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="G21" s="29"/>
-      <c r="H21" s="28" t="s">
+      <c r="G21" s="20"/>
+      <c r="H21" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="I21" s="29"/>
-      <c r="J21" s="28" t="s">
+      <c r="I21" s="20"/>
+      <c r="J21" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="K21" s="71"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="72" t="s">
+      <c r="K21" s="19"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="N21" s="71"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="71"/>
-      <c r="R21" s="29"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="20"/>
     </row>
     <row r="22" spans="1:18" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16">
         <v>5</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="73" t="s">
+      <c r="C22" s="29"/>
+      <c r="D22" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="74"/>
-      <c r="F22" s="18" t="s">
+      <c r="E22" s="27"/>
+      <c r="F22" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="G22" s="19"/>
-      <c r="H22" s="18" t="s">
+      <c r="G22" s="29"/>
+      <c r="H22" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="I22" s="19"/>
-      <c r="J22" s="18" t="s">
+      <c r="I22" s="29"/>
+      <c r="J22" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="K22" s="75"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="76" t="s">
+      <c r="K22" s="30"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="N22" s="75"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="75"/>
-      <c r="R22" s="19"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="28"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="29"/>
     </row>
     <row r="23" spans="1:18" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="14">
         <v>6</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="20" t="s">
+      <c r="C23" s="24"/>
+      <c r="D23" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="21"/>
-      <c r="F23" s="20" t="s">
+      <c r="E23" s="24"/>
+      <c r="F23" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="G23" s="21"/>
-      <c r="H23" s="20" t="s">
+      <c r="G23" s="24"/>
+      <c r="H23" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="I23" s="21"/>
-      <c r="J23" s="20" t="s">
+      <c r="I23" s="24"/>
+      <c r="J23" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="K23" s="77"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="78" t="s">
+      <c r="K23" s="23"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="N23" s="77"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="77"/>
-      <c r="R23" s="21"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="24"/>
     </row>
     <row r="24" spans="1:18" ht="147" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="13">
         <v>7</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="28" t="s">
+      <c r="C24" s="20"/>
+      <c r="D24" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="29"/>
-      <c r="F24" s="28" t="s">
+      <c r="E24" s="20"/>
+      <c r="F24" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="G24" s="29"/>
-      <c r="H24" s="28" t="s">
+      <c r="G24" s="20"/>
+      <c r="H24" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="I24" s="29"/>
-      <c r="J24" s="28" t="s">
+      <c r="I24" s="20"/>
+      <c r="J24" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="K24" s="71"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="72" t="s">
+      <c r="K24" s="19"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="N24" s="71"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="71"/>
-      <c r="R24" s="29"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="20"/>
     </row>
     <row r="25" spans="1:18" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="14">
         <v>8</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="28" t="s">
+      <c r="C25" s="20"/>
+      <c r="D25" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="29"/>
-      <c r="F25" s="28" t="s">
+      <c r="E25" s="20"/>
+      <c r="F25" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="G25" s="29"/>
-      <c r="H25" s="28" t="s">
+      <c r="G25" s="20"/>
+      <c r="H25" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="I25" s="29"/>
-      <c r="J25" s="28" t="s">
+      <c r="I25" s="20"/>
+      <c r="J25" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="K25" s="71"/>
-      <c r="L25" s="29"/>
-      <c r="M25" s="72" t="s">
+      <c r="K25" s="19"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="N25" s="71"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="71"/>
-      <c r="R25" s="29"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="20"/>
     </row>
     <row r="26" spans="1:18" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
         <v>9</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="28" t="s">
+      <c r="C26" s="20"/>
+      <c r="D26" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E26" s="29"/>
-      <c r="F26" s="28" t="s">
+      <c r="E26" s="20"/>
+      <c r="F26" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="G26" s="29"/>
-      <c r="H26" s="28" t="s">
+      <c r="G26" s="20"/>
+      <c r="H26" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="I26" s="29"/>
-      <c r="J26" s="28" t="s">
+      <c r="I26" s="20"/>
+      <c r="J26" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="K26" s="71"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="72" t="s">
+      <c r="K26" s="19"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="N26" s="71"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="71"/>
-      <c r="R26" s="29"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="20"/>
     </row>
     <row r="27" spans="1:18" ht="145.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="14">
         <v>10</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="28" t="s">
+      <c r="C27" s="20"/>
+      <c r="D27" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="29"/>
-      <c r="F27" s="28" t="s">
+      <c r="E27" s="20"/>
+      <c r="F27" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="G27" s="29"/>
-      <c r="H27" s="28" t="s">
+      <c r="G27" s="20"/>
+      <c r="H27" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="I27" s="29"/>
-      <c r="J27" s="28" t="s">
+      <c r="I27" s="20"/>
+      <c r="J27" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="K27" s="71"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="72" t="s">
+      <c r="K27" s="19"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="N27" s="71"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="71"/>
-      <c r="R27" s="29"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="20"/>
     </row>
     <row r="28" spans="1:18" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
         <v>11</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="28" t="s">
+      <c r="C28" s="20"/>
+      <c r="D28" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="29"/>
-      <c r="F28" s="28" t="s">
+      <c r="E28" s="20"/>
+      <c r="F28" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="G28" s="29"/>
-      <c r="H28" s="28" t="s">
+      <c r="G28" s="20"/>
+      <c r="H28" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="I28" s="29"/>
-      <c r="J28" s="28" t="s">
+      <c r="I28" s="20"/>
+      <c r="J28" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="K28" s="71"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="72" t="s">
+      <c r="K28" s="19"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="N28" s="71"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="71"/>
-      <c r="R28" s="29"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="20"/>
     </row>
     <row r="29" spans="1:18" ht="149.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="14">
         <v>12</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="28" t="s">
+      <c r="C29" s="20"/>
+      <c r="D29" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="29"/>
-      <c r="F29" s="28" t="s">
+      <c r="E29" s="20"/>
+      <c r="F29" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="G29" s="29"/>
-      <c r="H29" s="28" t="s">
+      <c r="G29" s="20"/>
+      <c r="H29" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="I29" s="29"/>
-      <c r="J29" s="28" t="s">
+      <c r="I29" s="20"/>
+      <c r="J29" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="K29" s="71"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="72" t="s">
+      <c r="K29" s="19"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="N29" s="71"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="71"/>
-      <c r="R29" s="29"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="20"/>
     </row>
     <row r="30" spans="1:18" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="13">
         <v>13</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="28" t="s">
+      <c r="C30" s="20"/>
+      <c r="D30" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="29"/>
-      <c r="F30" s="28" t="s">
+      <c r="E30" s="20"/>
+      <c r="F30" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="G30" s="29"/>
-      <c r="H30" s="28" t="s">
+      <c r="G30" s="20"/>
+      <c r="H30" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="I30" s="29"/>
-      <c r="J30" s="28" t="s">
+      <c r="I30" s="20"/>
+      <c r="J30" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="K30" s="71"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="72" t="s">
+      <c r="K30" s="19"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="N30" s="71"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="71"/>
-      <c r="R30" s="29"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="20"/>
     </row>
     <row r="31" spans="1:18" ht="138" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="14">
         <v>14</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="28" t="s">
+      <c r="C31" s="20"/>
+      <c r="D31" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="29"/>
-      <c r="F31" s="28" t="s">
+      <c r="E31" s="20"/>
+      <c r="F31" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G31" s="29"/>
-      <c r="H31" s="28" t="s">
+      <c r="G31" s="20"/>
+      <c r="H31" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="I31" s="29"/>
-      <c r="J31" s="28" t="s">
+      <c r="I31" s="20"/>
+      <c r="J31" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="K31" s="71"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="72" t="s">
+      <c r="K31" s="19"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="N31" s="71"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="71"/>
-      <c r="R31" s="29"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="20"/>
     </row>
     <row r="32" spans="1:18" ht="151.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="13">
         <v>15</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="28" t="s">
+      <c r="C32" s="20"/>
+      <c r="D32" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E32" s="29"/>
-      <c r="F32" s="28" t="s">
+      <c r="E32" s="20"/>
+      <c r="F32" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="G32" s="29"/>
-      <c r="H32" s="28" t="s">
+      <c r="G32" s="20"/>
+      <c r="H32" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="I32" s="29"/>
-      <c r="J32" s="28" t="s">
+      <c r="I32" s="20"/>
+      <c r="J32" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="K32" s="71"/>
-      <c r="L32" s="29"/>
-      <c r="M32" s="72" t="s">
+      <c r="K32" s="19"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="N32" s="71"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="71"/>
-      <c r="R32" s="29"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="20"/>
     </row>
     <row r="33" spans="1:18" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="14">
         <v>16</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="28" t="s">
+      <c r="C33" s="20"/>
+      <c r="D33" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E33" s="29"/>
-      <c r="F33" s="28" t="s">
+      <c r="E33" s="20"/>
+      <c r="F33" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="G33" s="29"/>
-      <c r="H33" s="28" t="s">
+      <c r="G33" s="20"/>
+      <c r="H33" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="I33" s="29"/>
-      <c r="J33" s="28" t="s">
+      <c r="I33" s="20"/>
+      <c r="J33" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="K33" s="71"/>
-      <c r="L33" s="29"/>
-      <c r="M33" s="72" t="s">
+      <c r="K33" s="19"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="N33" s="71"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="71"/>
-      <c r="R33" s="29"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="20"/>
     </row>
     <row r="34" spans="1:18" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="13">
         <v>17</v>
       </c>
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="29"/>
-      <c r="D34" s="28" t="s">
+      <c r="C34" s="20"/>
+      <c r="D34" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E34" s="29"/>
-      <c r="F34" s="28" t="s">
+      <c r="E34" s="20"/>
+      <c r="F34" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="G34" s="29"/>
-      <c r="H34" s="28" t="s">
+      <c r="G34" s="20"/>
+      <c r="H34" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="I34" s="29"/>
-      <c r="J34" s="28" t="s">
+      <c r="I34" s="20"/>
+      <c r="J34" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="K34" s="71"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="72" t="s">
+      <c r="K34" s="19"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="N34" s="71"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="71"/>
-      <c r="R34" s="29"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="20"/>
     </row>
     <row r="35" spans="1:18" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="14">
         <v>18</v>
       </c>
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="29"/>
-      <c r="D35" s="28" t="s">
+      <c r="C35" s="20"/>
+      <c r="D35" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E35" s="29"/>
-      <c r="F35" s="28" t="s">
+      <c r="E35" s="20"/>
+      <c r="F35" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="G35" s="29"/>
-      <c r="H35" s="28" t="s">
+      <c r="G35" s="20"/>
+      <c r="H35" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="I35" s="29"/>
-      <c r="J35" s="28" t="s">
+      <c r="I35" s="20"/>
+      <c r="J35" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="K35" s="71"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="72" t="s">
+      <c r="K35" s="19"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="N35" s="71"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="28"/>
-      <c r="Q35" s="71"/>
-      <c r="R35" s="29"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="20"/>
     </row>
     <row r="36" spans="1:18" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="13">
         <v>19</v>
       </c>
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="29"/>
-      <c r="D36" s="28" t="s">
+      <c r="C36" s="20"/>
+      <c r="D36" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="29"/>
-      <c r="F36" s="28" t="s">
+      <c r="E36" s="20"/>
+      <c r="F36" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="G36" s="29"/>
-      <c r="H36" s="28" t="s">
+      <c r="G36" s="20"/>
+      <c r="H36" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="I36" s="29"/>
-      <c r="J36" s="28" t="s">
+      <c r="I36" s="20"/>
+      <c r="J36" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="K36" s="71"/>
-      <c r="L36" s="29"/>
-      <c r="M36" s="72" t="s">
+      <c r="K36" s="19"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="N36" s="71"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="71"/>
-      <c r="R36" s="29"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="20"/>
     </row>
     <row r="37" spans="1:18" ht="241.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14">
         <v>20</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="29"/>
-      <c r="D37" s="28" t="s">
+      <c r="C37" s="20"/>
+      <c r="D37" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E37" s="29"/>
-      <c r="F37" s="28" t="s">
+      <c r="E37" s="20"/>
+      <c r="F37" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="G37" s="29"/>
-      <c r="H37" s="28" t="s">
+      <c r="G37" s="20"/>
+      <c r="H37" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="I37" s="29"/>
-      <c r="J37" s="28" t="s">
+      <c r="I37" s="20"/>
+      <c r="J37" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="K37" s="71"/>
-      <c r="L37" s="29"/>
-      <c r="M37" s="72" t="s">
+      <c r="K37" s="19"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="N37" s="71"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="28"/>
-      <c r="Q37" s="71"/>
-      <c r="R37" s="29"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="20"/>
     </row>
     <row r="38" spans="1:18" ht="236.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="13">
         <v>21</v>
       </c>
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C38" s="29"/>
-      <c r="D38" s="28" t="s">
+      <c r="C38" s="20"/>
+      <c r="D38" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="29"/>
-      <c r="F38" s="28" t="s">
+      <c r="E38" s="20"/>
+      <c r="F38" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="G38" s="29"/>
-      <c r="H38" s="28" t="s">
+      <c r="G38" s="20"/>
+      <c r="H38" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="I38" s="29"/>
-      <c r="J38" s="28" t="s">
+      <c r="I38" s="20"/>
+      <c r="J38" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="K38" s="71"/>
-      <c r="L38" s="29"/>
-      <c r="M38" s="72" t="s">
+      <c r="K38" s="19"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="N38" s="71"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="28"/>
-      <c r="Q38" s="71"/>
-      <c r="R38" s="29"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="20"/>
     </row>
     <row r="39" spans="1:18" ht="290.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="14">
         <v>22</v>
       </c>
-      <c r="B39" s="28" t="s">
+      <c r="B39" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="29"/>
-      <c r="D39" s="28" t="s">
+      <c r="C39" s="20"/>
+      <c r="D39" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="29"/>
-      <c r="F39" s="28" t="s">
+      <c r="E39" s="20"/>
+      <c r="F39" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="G39" s="29"/>
-      <c r="H39" s="28" t="s">
+      <c r="G39" s="20"/>
+      <c r="H39" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="I39" s="29"/>
-      <c r="J39" s="28" t="s">
+      <c r="I39" s="20"/>
+      <c r="J39" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="K39" s="71"/>
-      <c r="L39" s="29"/>
-      <c r="M39" s="72" t="s">
+      <c r="K39" s="19"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="N39" s="71"/>
-      <c r="O39" s="29"/>
-      <c r="P39" s="28"/>
-      <c r="Q39" s="71"/>
-      <c r="R39" s="29"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="20"/>
     </row>
     <row r="40" spans="1:18" ht="152.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="13">
         <v>23</v>
       </c>
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="29"/>
-      <c r="D40" s="28" t="s">
+      <c r="C40" s="20"/>
+      <c r="D40" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E40" s="29"/>
-      <c r="F40" s="28" t="s">
+      <c r="E40" s="20"/>
+      <c r="F40" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="G40" s="29"/>
-      <c r="H40" s="28" t="s">
+      <c r="G40" s="20"/>
+      <c r="H40" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="I40" s="29"/>
-      <c r="J40" s="28" t="s">
+      <c r="I40" s="20"/>
+      <c r="J40" s="21" t="s">
         <v>154</v>
       </c>
-      <c r="K40" s="71"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="72" t="s">
+      <c r="K40" s="19"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="N40" s="71"/>
-      <c r="O40" s="29"/>
-      <c r="P40" s="28"/>
-      <c r="Q40" s="71"/>
-      <c r="R40" s="29"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="20"/>
     </row>
     <row r="41" spans="1:18" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="14">
         <v>24</v>
       </c>
-      <c r="B41" s="28" t="s">
+      <c r="B41" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="29"/>
-      <c r="D41" s="28" t="s">
+      <c r="C41" s="20"/>
+      <c r="D41" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E41" s="29"/>
-      <c r="F41" s="28" t="s">
+      <c r="E41" s="20"/>
+      <c r="F41" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="G41" s="29"/>
-      <c r="H41" s="28" t="s">
+      <c r="G41" s="20"/>
+      <c r="H41" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="I41" s="29"/>
-      <c r="J41" s="28" t="s">
+      <c r="I41" s="20"/>
+      <c r="J41" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="K41" s="71"/>
-      <c r="L41" s="29"/>
-      <c r="M41" s="72" t="s">
+      <c r="K41" s="19"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="N41" s="71"/>
-      <c r="O41" s="29"/>
-      <c r="P41" s="28"/>
-      <c r="Q41" s="71"/>
-      <c r="R41" s="29"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="19"/>
+      <c r="R41" s="20"/>
     </row>
     <row r="42" spans="1:18" ht="204.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="13">
         <v>25</v>
       </c>
-      <c r="B42" s="28" t="s">
+      <c r="B42" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C42" s="29"/>
-      <c r="D42" s="28" t="s">
+      <c r="C42" s="20"/>
+      <c r="D42" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="29"/>
-      <c r="F42" s="28" t="s">
+      <c r="E42" s="20"/>
+      <c r="F42" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="G42" s="29"/>
-      <c r="H42" s="28" t="s">
+      <c r="G42" s="20"/>
+      <c r="H42" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="I42" s="29"/>
-      <c r="J42" s="28" t="s">
+      <c r="I42" s="20"/>
+      <c r="J42" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="K42" s="71"/>
-      <c r="L42" s="29"/>
-      <c r="M42" s="72" t="s">
+      <c r="K42" s="19"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="N42" s="71"/>
-      <c r="O42" s="29"/>
-      <c r="P42" s="28"/>
-      <c r="Q42" s="71"/>
-      <c r="R42" s="29"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="20"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="20"/>
     </row>
     <row r="43" spans="1:18" ht="145.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="14">
         <v>26</v>
       </c>
-      <c r="B43" s="28"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="28" t="s">
+      <c r="B43" s="21"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="G43" s="29"/>
-      <c r="H43" s="28" t="s">
+      <c r="G43" s="20"/>
+      <c r="H43" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="I43" s="29"/>
-      <c r="J43" s="28" t="s">
+      <c r="I43" s="20"/>
+      <c r="J43" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="K43" s="71"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="72" t="s">
+      <c r="K43" s="19"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="N43" s="71"/>
-      <c r="O43" s="29"/>
-      <c r="P43" s="28"/>
-      <c r="Q43" s="71"/>
-      <c r="R43" s="29"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="19"/>
+      <c r="R43" s="20"/>
     </row>
     <row r="44" spans="1:18" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="13">
         <v>27</v>
       </c>
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="29"/>
-      <c r="D44" s="28" t="s">
+      <c r="C44" s="20"/>
+      <c r="D44" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E44" s="29"/>
-      <c r="F44" s="28" t="s">
+      <c r="E44" s="20"/>
+      <c r="F44" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="G44" s="29"/>
-      <c r="H44" s="28" t="s">
+      <c r="G44" s="20"/>
+      <c r="H44" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="I44" s="29"/>
-      <c r="J44" s="28" t="s">
+      <c r="I44" s="20"/>
+      <c r="J44" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="K44" s="71"/>
-      <c r="L44" s="29"/>
-      <c r="M44" s="72" t="s">
+      <c r="K44" s="19"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="N44" s="71"/>
-      <c r="O44" s="29"/>
-      <c r="P44" s="28"/>
-      <c r="Q44" s="71"/>
-      <c r="R44" s="29"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="19"/>
+      <c r="R44" s="20"/>
     </row>
     <row r="45" spans="1:18" ht="141.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="14">
         <v>28</v>
       </c>
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C45" s="29"/>
-      <c r="D45" s="28" t="s">
+      <c r="C45" s="20"/>
+      <c r="D45" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E45" s="29"/>
-      <c r="F45" s="28" t="s">
+      <c r="E45" s="20"/>
+      <c r="F45" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="G45" s="29"/>
-      <c r="H45" s="28" t="s">
+      <c r="G45" s="20"/>
+      <c r="H45" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="I45" s="29"/>
-      <c r="J45" s="28" t="s">
+      <c r="I45" s="20"/>
+      <c r="J45" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="K45" s="71"/>
-      <c r="L45" s="29"/>
-      <c r="M45" s="72" t="s">
+      <c r="K45" s="19"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="N45" s="71"/>
-      <c r="O45" s="29"/>
-      <c r="P45" s="28"/>
-      <c r="Q45" s="71"/>
-      <c r="R45" s="29"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="20"/>
+      <c r="P45" s="21"/>
+      <c r="Q45" s="19"/>
+      <c r="R45" s="20"/>
     </row>
     <row r="46" spans="1:18" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="13">
         <v>29</v>
       </c>
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="29"/>
-      <c r="D46" s="28" t="s">
+      <c r="C46" s="20"/>
+      <c r="D46" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E46" s="29"/>
-      <c r="F46" s="28" t="s">
+      <c r="E46" s="20"/>
+      <c r="F46" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="G46" s="29"/>
-      <c r="H46" s="28" t="s">
+      <c r="G46" s="20"/>
+      <c r="H46" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="I46" s="29"/>
-      <c r="J46" s="28" t="s">
+      <c r="I46" s="20"/>
+      <c r="J46" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="K46" s="71"/>
-      <c r="L46" s="29"/>
-      <c r="M46" s="72" t="s">
+      <c r="K46" s="19"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="N46" s="71"/>
-      <c r="O46" s="29"/>
-      <c r="P46" s="28"/>
-      <c r="Q46" s="71"/>
-      <c r="R46" s="29"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="20"/>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="19"/>
+      <c r="R46" s="20"/>
     </row>
     <row r="47" spans="1:18" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="14">
         <v>30</v>
       </c>
-      <c r="B47" s="28" t="s">
+      <c r="B47" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C47" s="29"/>
-      <c r="D47" s="28" t="s">
+      <c r="C47" s="20"/>
+      <c r="D47" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E47" s="29"/>
-      <c r="F47" s="28" t="s">
+      <c r="E47" s="20"/>
+      <c r="F47" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="G47" s="29"/>
-      <c r="H47" s="28" t="s">
+      <c r="G47" s="20"/>
+      <c r="H47" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="I47" s="29"/>
-      <c r="J47" s="28" t="s">
+      <c r="I47" s="20"/>
+      <c r="J47" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="K47" s="71"/>
-      <c r="L47" s="29"/>
-      <c r="M47" s="72" t="s">
+      <c r="K47" s="19"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="N47" s="71"/>
-      <c r="O47" s="29"/>
-      <c r="P47" s="28"/>
-      <c r="Q47" s="71"/>
-      <c r="R47" s="29"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="20"/>
+      <c r="P47" s="21"/>
+      <c r="Q47" s="19"/>
+      <c r="R47" s="20"/>
     </row>
     <row r="48" spans="1:18" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="13">
         <v>31</v>
       </c>
-      <c r="B48" s="28" t="s">
+      <c r="B48" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C48" s="29"/>
-      <c r="D48" s="28" t="s">
+      <c r="C48" s="20"/>
+      <c r="D48" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="29"/>
-      <c r="F48" s="28" t="s">
+      <c r="E48" s="20"/>
+      <c r="F48" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="G48" s="29"/>
-      <c r="H48" s="28" t="s">
+      <c r="G48" s="20"/>
+      <c r="H48" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="I48" s="29"/>
-      <c r="J48" s="28" t="s">
+      <c r="I48" s="20"/>
+      <c r="J48" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="K48" s="71"/>
-      <c r="L48" s="29"/>
-      <c r="M48" s="72" t="s">
+      <c r="K48" s="19"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="N48" s="71"/>
-      <c r="O48" s="29"/>
-      <c r="P48" s="28"/>
-      <c r="Q48" s="71"/>
-      <c r="R48" s="29"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="20"/>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="19"/>
+      <c r="R48" s="20"/>
     </row>
     <row r="49" spans="1:18" ht="207" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="14">
         <v>32</v>
       </c>
-      <c r="B49" s="28" t="s">
+      <c r="B49" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C49" s="29"/>
-      <c r="D49" s="28" t="s">
+      <c r="C49" s="20"/>
+      <c r="D49" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E49" s="29"/>
-      <c r="F49" s="28" t="s">
+      <c r="E49" s="20"/>
+      <c r="F49" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="G49" s="29"/>
-      <c r="H49" s="28" t="s">
+      <c r="G49" s="20"/>
+      <c r="H49" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="I49" s="29"/>
-      <c r="J49" s="28" t="s">
+      <c r="I49" s="20"/>
+      <c r="J49" s="21" t="s">
         <v>156</v>
       </c>
-      <c r="K49" s="71"/>
-      <c r="L49" s="29"/>
-      <c r="M49" s="72" t="s">
+      <c r="K49" s="19"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="N49" s="71"/>
-      <c r="O49" s="29"/>
-      <c r="P49" s="28"/>
-      <c r="Q49" s="71"/>
-      <c r="R49" s="29"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="20"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="19"/>
+      <c r="R49" s="20"/>
     </row>
     <row r="50" spans="1:18" ht="221.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="13">
         <v>33</v>
       </c>
-      <c r="B50" s="28" t="s">
+      <c r="B50" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C50" s="29"/>
-      <c r="D50" s="28" t="s">
+      <c r="C50" s="20"/>
+      <c r="D50" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E50" s="29"/>
-      <c r="F50" s="28" t="s">
+      <c r="E50" s="20"/>
+      <c r="F50" s="21" t="s">
         <v>131</v>
       </c>
-      <c r="G50" s="29"/>
-      <c r="H50" s="28" t="s">
+      <c r="G50" s="20"/>
+      <c r="H50" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="I50" s="29"/>
-      <c r="J50" s="28" t="s">
+      <c r="I50" s="20"/>
+      <c r="J50" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="K50" s="71"/>
-      <c r="L50" s="29"/>
-      <c r="M50" s="72" t="s">
+      <c r="K50" s="19"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="N50" s="71"/>
-      <c r="O50" s="29"/>
-      <c r="P50" s="28"/>
-      <c r="Q50" s="71"/>
-      <c r="R50" s="29"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="20"/>
+      <c r="P50" s="21"/>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="20"/>
     </row>
     <row r="51" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="14">
         <v>34</v>
       </c>
-      <c r="B51" s="28"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="28"/>
-      <c r="K51" s="71"/>
-      <c r="L51" s="29"/>
-      <c r="M51" s="72"/>
-      <c r="N51" s="71"/>
-      <c r="O51" s="29"/>
-      <c r="P51" s="28"/>
-      <c r="Q51" s="71"/>
-      <c r="R51" s="29"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="20"/>
+      <c r="P51" s="21"/>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="20"/>
     </row>
     <row r="52" spans="1:18" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="13">
         <v>35</v>
       </c>
-      <c r="B52" s="28"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="29"/>
-      <c r="J52" s="28"/>
-      <c r="K52" s="71"/>
-      <c r="L52" s="29"/>
-      <c r="M52" s="72"/>
-      <c r="N52" s="71"/>
-      <c r="O52" s="29"/>
-      <c r="P52" s="28"/>
-      <c r="Q52" s="71"/>
-      <c r="R52" s="29"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="18"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="20"/>
+      <c r="P52" s="21"/>
+      <c r="Q52" s="19"/>
+      <c r="R52" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="279">
-    <mergeCell ref="M51:O51"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="J52:L52"/>
-    <mergeCell ref="M52:O52"/>
-    <mergeCell ref="P52:R52"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:L51"/>
-    <mergeCell ref="M49:O49"/>
-    <mergeCell ref="P49:R49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="M50:O50"/>
-    <mergeCell ref="P50:R50"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="M47:O47"/>
-    <mergeCell ref="P47:R47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J48:L48"/>
-    <mergeCell ref="M48:O48"/>
-    <mergeCell ref="P48:R48"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="M45:O45"/>
-    <mergeCell ref="P45:R45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:L46"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="P46:R46"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="M43:O43"/>
-    <mergeCell ref="P43:R43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="M44:O44"/>
-    <mergeCell ref="P44:R44"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="J43:L43"/>
-    <mergeCell ref="M41:O41"/>
-    <mergeCell ref="P41:R41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="M42:O42"/>
-    <mergeCell ref="P42:R42"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="P40:R40"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="P21:R21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="P19:R19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="A14:O14"/>
+    <mergeCell ref="A15:O15"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:G17"/>
+    <mergeCell ref="H16:I17"/>
+    <mergeCell ref="J16:L17"/>
+    <mergeCell ref="M16:O17"/>
     <mergeCell ref="P16:R17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="F18:G18"/>
@@ -3368,37 +3175,230 @@
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="G8:K8"/>
     <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="A14:O14"/>
-    <mergeCell ref="A15:O15"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:G17"/>
-    <mergeCell ref="H16:I17"/>
-    <mergeCell ref="J16:L17"/>
-    <mergeCell ref="M16:O17"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="P19:R19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="P20:R20"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="P21:R21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="P40:R40"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="M41:O41"/>
+    <mergeCell ref="P41:R41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="M42:O42"/>
+    <mergeCell ref="P42:R42"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="P43:R43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="J44:L44"/>
+    <mergeCell ref="M44:O44"/>
+    <mergeCell ref="P44:R44"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="J43:L43"/>
+    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="P45:R45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="J46:L46"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="P46:R46"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="P47:R47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="M48:O48"/>
+    <mergeCell ref="P48:R48"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:L47"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="P49:R49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="M50:O50"/>
+    <mergeCell ref="P50:R50"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="M51:O51"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="J52:L52"/>
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="P52:R52"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:L51"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M18" r:id="rId1" location="/p/sarajevo-city-center"/>
